--- a/Document/Impedance.xlsx
+++ b/Document/Impedance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Embedded LAB\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Embedded LAB\ADC_Test\project_lab_imp_measuring\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B3794E79-A6B4-4B7F-AE35-B58193656577}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5C60C3C1-361D-40AD-A5BC-92C2C8EB2571}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>freq</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>(-5.1007)</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
 </sst>
 </file>
@@ -450,7 +447,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,8 +815,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
+      <c r="A7" s="1">
+        <v>30000</v>
       </c>
       <c r="B7" s="1">
         <v>1497.7260699999999</v>
@@ -931,11 +928,11 @@
         <v>-4.3528559999999743</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" ref="Q7:Q8" si="5">P10*100/L8</f>
+        <f t="shared" ref="Q8" si="5">P10*100/L8</f>
         <v>1.3276577125948308</v>
       </c>
       <c r="R8">
-        <f t="shared" ref="R7:R8" si="6">P10*100/O8</f>
+        <f t="shared" ref="R8" si="6">P10*100/O8</f>
         <v>1.3403809072444048</v>
       </c>
     </row>
